--- a/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.95</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.28</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>86.67</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>86.67</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.44</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.73</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,14 +863,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -858,14 +901,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19</v>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -874,13 +939,401 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.42</v>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.19</v>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1414,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.57</v>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.42</v>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1786,14 +1851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1802,14 +1889,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.19</v>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1818,13 +1927,469 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,167 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160218</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰国证房地产行业指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2287</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006926</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011463</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -626,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -677,36 +639,490 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160218</t>
+          <t>005994</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰国证房地产行业指数</t>
+          <t>国投瑞银中证500指数量化增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>13.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>87.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1903</t>
+          <t>0.1495</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +1136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +1157,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -771,36 +1187,416 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>515450</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0581</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +2046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,7 +2067,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1301,416 +2097,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005994</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强A</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>98.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1868</t>
+          <t>0.0581</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0802</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>163110</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0755</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0619</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0509</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>97.96</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011731</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银安睿混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>43.48</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011732</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国投瑞银安睿混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>43.48</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007943</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富安达中证 500 指数增强</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.50</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1724,7 +2140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1745,7 +2161,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1775,490 +2191,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005994</t>
+          <t>160218</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强A</t>
+          <t>国泰国证房地产行业指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.72</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.08</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1495</t>
+          <t>0.1903</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0929</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>163110</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0807</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012708</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方红中证东方红红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0726</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.38</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0668</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005062</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0598</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0501</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0480</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>98.62</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.14</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005795</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>012709</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东方红中证东方红红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>013918</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>申万菱信量化小盘股票（LOF）C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.36</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2272,128 +2234,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.71</v>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.57</v>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.24</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.71</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -639,32 +656,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005994</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强A</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.72</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.08</t>
+          <t>99.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1495</t>
+          <t>0.0877</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>012708</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>东方红中证东方红红利低波动指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.60</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0929</t>
+          <t>0.0543</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0807</t>
+          <t>0.0481</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012708</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方红中证东方红红利低波动指数A</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>61.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0726</t>
+          <t>0.0440</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -801,26 +818,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0668</t>
+          <t>0.0372</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -829,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005062</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时中证500指数增强A</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>98.63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0598</t>
+          <t>0.0334</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -867,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>98.92</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>0.0224</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -905,32 +922,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007089</t>
+          <t>012709</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强C</t>
+          <t>东方红中证东方红红利低波动指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.08</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0480</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -943,36 +960,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.62</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0271</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -981,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>009384</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0250</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1019,32 +1036,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005795</t>
+          <t>005126</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时中证500指数增强C</t>
+          <t>银河量化稳进混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>55.69</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1057,36 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012709</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东方红中证东方红红利低波动指数C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1095,12 +1112,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>013918</t>
+          <t>014866</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票（LOF）C</t>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1110,19 +1127,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1131,6 +1148,554 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1604,7 +2169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2033,100 +2598,6 @@
       </c>
       <c r="H11" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0581</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2191,36 +2662,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160218</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰国证房地产行业指数</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>98.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1903</t>
+          <t>0.0581</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2229,6 +2700,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/600177-雅戈尔.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.71</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.66</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0877</t>
+          <t>0.0770</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012708</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红中证东方红红利低波动指数A</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0543</t>
+          <t>0.0757</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0481</t>
+          <t>0.0649</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>080005</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长盛量化红利混合</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>61.68</t>
+          <t>99.39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0440</t>
+          <t>0.0640</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0372</t>
+          <t>0.0443</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -856,26 +873,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.63</t>
+          <t>99.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0334</t>
+          <t>0.0339</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -884,262 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.92</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0224</t>
+          <t>0.0329</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012709</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方红中证东方红红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.27</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009384</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫MSCI中国A股指数增强A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005126</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银河量化稳进混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>55.69</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.27</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>014866</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫MSCI中国A股指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1204,32 +995,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005994</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强A</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.72</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.08</t>
+          <t>99.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1495</t>
+          <t>0.0877</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1242,36 +1033,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>012708</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>东方红中证东方红红利低波动指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.60</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0929</t>
+          <t>0.0543</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1280,36 +1071,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0807</t>
+          <t>0.0481</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1318,36 +1109,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012708</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方红中证东方红红利低波动指数A</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>61.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0726</t>
+          <t>0.0440</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1366,26 +1157,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0668</t>
+          <t>0.0372</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1394,36 +1185,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005062</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时中证500指数增强A</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>98.63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0598</t>
+          <t>0.0334</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1432,36 +1223,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>98.92</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>0.0224</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1470,32 +1261,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007089</t>
+          <t>012709</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强C</t>
+          <t>东方红中证东方红红利低波动指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.08</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0480</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1508,36 +1299,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.62</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0271</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1546,36 +1337,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>009384</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0250</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1584,32 +1375,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005795</t>
+          <t>005126</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时中证500指数增强C</t>
+          <t>银河量化稳进混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>55.69</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1622,36 +1413,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012709</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东方红中证东方红红利低波动指数C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1660,12 +1451,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>013918</t>
+          <t>014866</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票（LOF）C</t>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1675,19 +1466,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1696,6 +1487,554 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2169,7 +2508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2598,100 +2937,6 @@
       </c>
       <c r="H11" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0581</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2756,36 +3001,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160218</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰国证房地产行业指数</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>98.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1903</t>
+          <t>0.0581</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2794,6 +3039,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
